--- a/GroupProject/Docs/JobRankingTestDemo.xlsx
+++ b/GroupProject/Docs/JobRankingTestDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numidianprince\Documents\6300GroupProject\6300Fall20Team120\GroupProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CFEB8E-C299-4866-97B0-63F9B995DF1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA495C3-563C-4931-A274-5C3235BE99B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F00AA63-2AEE-49C8-9C75-784DE6DFAF58}"/>
   </bookViews>
@@ -201,6 +201,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0198D4B-A544-46EC-8804-A05A5CA9CEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6403660" y="1914288"/>
+          <a:ext cx="3035615" cy="2276711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,7 +552,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +586,7 @@
         <v>25</v>
       </c>
       <c r="K1" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -563,7 +612,7 @@
         <v>26</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -589,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -615,7 +664,7 @@
         <v>28</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -641,7 +690,7 @@
         <v>29</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -668,7 +717,7 @@
       </c>
       <c r="K6">
         <f>SUM(K1:K5)</f>
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -838,23 +887,23 @@
       </c>
       <c r="B15">
         <f>(($K$2/$K$6)*B12)+(($K$3/$K$6)*B13)+((($K$4/$K$6)*(B14*B12)))+(($K$5/$K$6)*(B10*B12/260))-(($K$1/$K$6)*(B6*B12/8))</f>
-        <v>68351.648351648357</v>
+        <v>38673.076923076922</v>
       </c>
       <c r="C15">
         <f>(($K$2/$K$6)*C12)+(($K$3/$K$6)*C13)+((($K$4/$K$6)*(C14*C12)))+(($K$5/$K$6)*(C10*C12/260))-(($K$1/$K$6)*(C6*C12/8))</f>
-        <v>62293.706293706302</v>
+        <v>34784.615384615383</v>
       </c>
       <c r="D15">
         <f>(($K$2/$K$6)*D12)+(($K$3/$K$6)*D13)+((($K$4/$K$6)*(D14*D12)))+(($K$5/$K$6)*(D10*D12/260))-(($K$1/$K$6)*(D6*D12/8))</f>
-        <v>72554.739010989011</v>
+        <v>37883.846153846156</v>
       </c>
       <c r="E15">
         <f>(($K$2/$K$6)*E12)+(($K$3/$K$6)*E13)+((($K$4/$K$6)*(E14*E12)))+(($K$5/$K$6)*(E10*E12/260))-(($K$1/$K$6)*(E6*E12/8))</f>
-        <v>60553.890553890553</v>
+        <v>33986.790986790977</v>
       </c>
       <c r="F15">
         <f>(($K$2/$K$6)*F12)+(($K$3/$K$6)*F13)+((($K$4/$K$6)*(F14*F12)))+(($K$5/$K$6)*(F10*F12/260))-(($K$1/$K$6)*(F6*F12/8))</f>
-        <v>95508.241758241755</v>
+        <v>54943.509615384617</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,7 +912,7 @@
       </c>
       <c r="B17">
         <f>RANK(B15,$B$15:$F$15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:F17" si="1">RANK(C15,$B$15:$F$15)</f>
@@ -871,7 +920,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -904,5 +953,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GroupProject/Docs/JobRankingTestDemo.xlsx
+++ b/GroupProject/Docs/JobRankingTestDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numidianprince\Documents\6300GroupProject\6300Fall20Team120\GroupProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA495C3-563C-4931-A274-5C3235BE99B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812425C2-06BE-459B-A28C-5CEE4DDC810C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F00AA63-2AEE-49C8-9C75-784DE6DFAF58}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,13 +936,13 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>5</v>

--- a/GroupProject/Docs/JobRankingTestDemo.xlsx
+++ b/GroupProject/Docs/JobRankingTestDemo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numidianprince\Documents\6300GroupProject\6300Fall20Team120\GroupProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812425C2-06BE-459B-A28C-5CEE4DDC810C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287D450E-0B1B-4588-BA9F-D4170A27A850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F00AA63-2AEE-49C8-9C75-784DE6DFAF58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>JOB OFFER 1</t>
   </si>
@@ -182,10 +184,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,16 +217,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2860</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602935</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -239,8 +249,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6403660" y="1914288"/>
-          <a:ext cx="3035615" cy="2276711"/>
+          <a:off x="7613335" y="1723788"/>
+          <a:ext cx="3330890" cy="2498168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE171D24-BA17-4E62-9442-28DF569A509B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600949" y="1624390"/>
+          <a:ext cx="3457575" cy="2583396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1C3A15-2997-442B-B5BB-D00DBC5F7C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="1704975"/>
+          <a:ext cx="3371850" cy="2493898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,21 +660,22 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,6 +691,9 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -593,25 +705,28 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -619,25 +734,28 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -645,25 +763,28 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -671,25 +792,28 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>170</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>165</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>200</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>198</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>192</v>
       </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -697,25 +821,28 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f>SUM(K1:K5)</f>
         <v>5</v>
       </c>
@@ -724,45 +851,53 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>150000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>140000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>190000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>160000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>220000</v>
       </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>50000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>35000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>65000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>45000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>100000</v>
       </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>170</v>
       </c>
     </row>
@@ -770,186 +905,1258 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <f>B7/(((B5-$K$8)/$K$8)+1)</f>
         <v>150000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <f>C7/(((C5-$K$8)/$K$8)+1)</f>
         <v>144242.42424242425</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <f>D7/(((D5-$K$8)/$K$8)+1)</f>
         <v>161500</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <f>E7/(((E5-$K$8)/$K$8)+1)</f>
         <v>137373.73737373736</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f>F7/(((F5-$K$8)/$K$8)+1)</f>
         <v>194791.66666666666</v>
       </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <f>B8/(((B5-$K$8)/$K$8)+1)</f>
         <v>50000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <f>C8/(((C5-$K$8)/$K$8)+1)</f>
         <v>36060.606060606064</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <f>D8/(((D5-$K$8)/$K$8)+1)</f>
         <v>55250</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f>E8/(((E5-$K$8)/$K$8)+1)</f>
         <v>38636.363636363632</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <f>F8/(((F5-$K$8)/$K$8)+1)</f>
         <v>88541.666666666672</v>
       </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <f>B9*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:F14" si="0">C9*0.01</f>
         <v>0.05</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <f>(($K$2/$K$6)*B12)+(($K$3/$K$6)*B13)+((($K$4/$K$6)*(B14*B12)))+(($K$5/$K$6)*(B10*B12/260))-(($K$1/$K$6)*(B6*B12/8))</f>
         <v>38673.076923076922</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <f>(($K$2/$K$6)*C12)+(($K$3/$K$6)*C13)+((($K$4/$K$6)*(C14*C12)))+(($K$5/$K$6)*(C10*C12/260))-(($K$1/$K$6)*(C6*C12/8))</f>
         <v>34784.615384615383</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <f>(($K$2/$K$6)*D12)+(($K$3/$K$6)*D13)+((($K$4/$K$6)*(D14*D12)))+(($K$5/$K$6)*(D10*D12/260))-(($K$1/$K$6)*(D6*D12/8))</f>
         <v>37883.846153846156</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f>(($K$2/$K$6)*E12)+(($K$3/$K$6)*E13)+((($K$4/$K$6)*(E14*E12)))+(($K$5/$K$6)*(E10*E12/260))-(($K$1/$K$6)*(E6*E12/8))</f>
         <v>33986.790986790977</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <f>(($K$2/$K$6)*F12)+(($K$3/$K$6)*F13)+((($K$4/$K$6)*(F14*F12)))+(($K$5/$K$6)*(F10*F12/260))-(($K$1/$K$6)*(F6*F12/8))</f>
         <v>54943.509615384617</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <f>RANK(B15,$B$15:$F$15)</f>
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <f t="shared" ref="C17:F17" si="1">RANK(C15,$B$15:$F$15)</f>
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012202BE-51A1-42BA-BD1A-234E85BA71A3}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>170</v>
+      </c>
+      <c r="C5" s="3">
+        <v>165</v>
+      </c>
+      <c r="D5" s="3">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>198</v>
+      </c>
+      <c r="F5" s="3">
+        <v>192</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
+        <f>SUM(K1:K5)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>150000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>140000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>190000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>160000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>220000</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>65000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B7/(((B5-$K$8)/$K$8)+1)</f>
+        <v>150000</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C7/(((C5-$K$8)/$K$8)+1)</f>
+        <v>144242.42424242425</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D7/(((D5-$K$8)/$K$8)+1)</f>
+        <v>161500</v>
+      </c>
+      <c r="E12" s="3">
+        <f>E7/(((E5-$K$8)/$K$8)+1)</f>
+        <v>137373.73737373736</v>
+      </c>
+      <c r="F12" s="3">
+        <f>F7/(((F5-$K$8)/$K$8)+1)</f>
+        <v>194791.66666666666</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B8/(((B5-$K$8)/$K$8)+1)</f>
+        <v>50000</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C8/(((C5-$K$8)/$K$8)+1)</f>
+        <v>36060.606060606064</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D8/(((D5-$K$8)/$K$8)+1)</f>
+        <v>55250</v>
+      </c>
+      <c r="E13" s="3">
+        <f>E8/(((E5-$K$8)/$K$8)+1)</f>
+        <v>38636.363636363632</v>
+      </c>
+      <c r="F13" s="3">
+        <f>F8/(((F5-$K$8)/$K$8)+1)</f>
+        <v>88541.666666666672</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B9*0.01</f>
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:F14" si="0">C9*0.01</f>
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <f>(($K$2/$K$6)*B12)+(($K$3/$K$6)*B13)+((($K$4/$K$6)*(B14*B12)))+(($K$5/$K$6)*(B10*B12/260))-(($K$1/$K$6)*(B6*B12/8))</f>
+        <v>69846.866096866099</v>
+      </c>
+      <c r="C15" s="3">
+        <f>(($K$2/$K$6)*C12)+(($K$3/$K$6)*C13)+((($K$4/$K$6)*(C14*C12)))+(($K$5/$K$6)*(C10*C12/260))-(($K$1/$K$6)*(C6*C12/8))</f>
+        <v>63604.333937667267</v>
+      </c>
+      <c r="D15" s="3">
+        <f>(($K$2/$K$6)*D12)+(($K$3/$K$6)*D13)+((($K$4/$K$6)*(D14*D12)))+(($K$5/$K$6)*(D10*D12/260))-(($K$1/$K$6)*(D6*D12/8))</f>
+        <v>73378.490028490021</v>
+      </c>
+      <c r="E15" s="3">
+        <f>(($K$2/$K$6)*E12)+(($K$3/$K$6)*E13)+((($K$4/$K$6)*(E14*E12)))+(($K$5/$K$6)*(E10*E12/260))-(($K$1/$K$6)*(E6*E12/8))</f>
+        <v>61847.535180868494</v>
+      </c>
+      <c r="F15" s="3">
+        <f>(($K$2/$K$6)*F12)+(($K$3/$K$6)*F13)+((($K$4/$K$6)*(F14*F12)))+(($K$5/$K$6)*(F10*F12/260))-(($K$1/$K$6)*(F6*F12/8))</f>
+        <v>97699.80116334281</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <f>RANK(B15,$B$15:$F$15)</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:F17" si="1">RANK(C15,$B$15:$F$15)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BCC17D-D1D5-4D64-87B5-78EB278D5D76}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>170</v>
+      </c>
+      <c r="C5" s="3">
+        <v>165</v>
+      </c>
+      <c r="D5" s="3">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>198</v>
+      </c>
+      <c r="F5" s="3">
+        <v>192</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
+        <f>SUM(K1:K5)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>150000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>140000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>190000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>160000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>220000</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>65000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B7/(((B5-$K$8)/$K$8)+1)</f>
+        <v>150000</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C7/(((C5-$K$8)/$K$8)+1)</f>
+        <v>144242.42424242425</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D7/(((D5-$K$8)/$K$8)+1)</f>
+        <v>161500</v>
+      </c>
+      <c r="E12" s="3">
+        <f>E7/(((E5-$K$8)/$K$8)+1)</f>
+        <v>137373.73737373736</v>
+      </c>
+      <c r="F12" s="3">
+        <f>F7/(((F5-$K$8)/$K$8)+1)</f>
+        <v>194791.66666666666</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B8/(((B5-$K$8)/$K$8)+1)</f>
+        <v>50000</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C8/(((C5-$K$8)/$K$8)+1)</f>
+        <v>36060.606060606064</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D8/(((D5-$K$8)/$K$8)+1)</f>
+        <v>55250</v>
+      </c>
+      <c r="E13" s="3">
+        <f>E8/(((E5-$K$8)/$K$8)+1)</f>
+        <v>38636.363636363632</v>
+      </c>
+      <c r="F13" s="3">
+        <f>F8/(((F5-$K$8)/$K$8)+1)</f>
+        <v>88541.666666666672</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B9*0.01</f>
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:F14" si="0">C9*0.01</f>
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <f>(($K$2/$K$6)*B12)+(($K$3/$K$6)*B13)+((($K$4/$K$6)*(B14*B12)))+(($K$5/$K$6)*(B10*B12/260))-(($K$1/$K$6)*(B6*B12/8))</f>
+        <v>13478.708791208788</v>
+      </c>
+      <c r="C15" s="3">
+        <f>(($K$2/$K$6)*C12)+(($K$3/$K$6)*C13)+((($K$4/$K$6)*(C14*C12)))+(($K$5/$K$6)*(C10*C12/260))-(($K$1/$K$6)*(C6*C12/8))</f>
+        <v>12532.051282051283</v>
+      </c>
+      <c r="D15" s="3">
+        <f>(($K$2/$K$6)*D12)+(($K$3/$K$6)*D13)+((($K$4/$K$6)*(D14*D12)))+(($K$5/$K$6)*(D10*D12/260))-(($K$1/$K$6)*(D6*D12/8))</f>
+        <v>10957.760989010989</v>
+      </c>
+      <c r="E15" s="3">
+        <f>(($K$2/$K$6)*E12)+(($K$3/$K$6)*E13)+((($K$4/$K$6)*(E14*E12)))+(($K$5/$K$6)*(E10*E12/260))-(($K$1/$K$6)*(E6*E12/8))</f>
+        <v>12088.605838605836</v>
+      </c>
+      <c r="F15" s="3">
+        <f>(($K$2/$K$6)*F12)+(($K$3/$K$6)*F13)+((($K$4/$K$6)*(F14*F12)))+(($K$5/$K$6)*(F10*F12/260))-(($K$1/$K$6)*(F6*F12/8))</f>
+        <v>18346.854967948715</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <f>RANK(B15,$B$15:$F$15)</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:F17" si="1">RANK(C15,$B$15:$F$15)</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
